--- a/Inputs/IATI returns/OPM - award data (EDI - 203051).xlsx
+++ b/Inputs/IATI returns/OPM - award data (EDI - 203051).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dfid-my.sharepoint.com/personal/e-clegg_dfid_gov_uk/Documents/PROJECT - MODARI/2. Awards/IATI/External partner data/2 - Completed returns/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wellcomecloud-my.sharepoint.com/personal/e_clegg_ukcds_org_uk/Documents/My Documents/GitHub/ODA_research_and_innovation/Inputs/IATI returns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{72E71E09-1D84-4279-A539-816E60404913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0AE7AAC5-8BD3-402E-A7C6-ECE21C497DEB}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{72E71E09-1D84-4279-A539-816E60404913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DAC12FD2-BDFA-43CD-BB2B-A369551037D9}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scope and Data Dictionary" sheetId="2" r:id="rId1"/>
@@ -1000,13 +1000,13 @@
     <t>Foreign, Commonwealth and Development Office</t>
   </si>
   <si>
-    <t>FCDO fully funded</t>
-  </si>
-  <si>
     <t>Funder programme - name</t>
   </si>
   <si>
     <t>Funder programme - IATI ID</t>
+  </si>
+  <si>
+    <t>FCDO Research - Programmes</t>
   </si>
 </sst>
 </file>
@@ -1471,22 +1471,22 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="119.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.58203125" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="25" width="8.58203125" customWidth="1"/>
+    <col min="2" max="2" width="39.296875" customWidth="1"/>
+    <col min="3" max="3" width="119.796875" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" customWidth="1"/>
+    <col min="5" max="5" width="24.69921875" customWidth="1"/>
+    <col min="6" max="25" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -1494,34 +1494,34 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>5</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>6</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>7</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>8</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>9</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>10</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>11</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>12</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>13</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>14</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>15</v>
       </c>
@@ -1695,995 +1695,995 @@
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1001" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1002" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1003" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2702,30 +2702,30 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.58203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.796875" customWidth="1"/>
+    <col min="2" max="2" width="46.296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" style="8" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" customWidth="1"/>
-    <col min="8" max="8" width="48.33203125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="30.58203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="12.58203125" style="28" customWidth="1"/>
-    <col min="11" max="11" width="11.75" style="28" customWidth="1"/>
-    <col min="12" max="12" width="17.75" style="14" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="14" customWidth="1"/>
-    <col min="14" max="14" width="54.58203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" customWidth="1"/>
+    <col min="6" max="6" width="24.69921875" customWidth="1"/>
+    <col min="7" max="7" width="23.796875" customWidth="1"/>
+    <col min="8" max="8" width="48.296875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="30.59765625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="11.69921875" style="28" customWidth="1"/>
+    <col min="12" max="12" width="17.69921875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="20.296875" style="14" customWidth="1"/>
+    <col min="14" max="14" width="54.59765625" style="14" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="14" customWidth="1"/>
-    <col min="16" max="16" width="29.08203125" style="14" customWidth="1"/>
+    <col min="16" max="16" width="29.09765625" style="14" customWidth="1"/>
     <col min="17" max="17" width="25" style="14" customWidth="1"/>
     <col min="18" max="18" width="46" customWidth="1"/>
-    <col min="19" max="21" width="8.58203125" customWidth="1"/>
+    <col min="19" max="21" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2736,10 +2736,10 @@
         <v>318</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2792,7 +2792,7 @@
         <v>319</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>44</v>
@@ -2844,7 +2844,7 @@
         <v>319</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>44</v>
@@ -2889,7 +2889,7 @@
         <v>319</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>44</v>
@@ -2939,7 +2939,7 @@
         <v>319</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>44</v>
@@ -2989,7 +2989,7 @@
         <v>319</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>44</v>
@@ -3039,7 +3039,7 @@
         <v>319</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>44</v>
@@ -3089,7 +3089,7 @@
         <v>319</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>44</v>
@@ -3139,7 +3139,7 @@
         <v>319</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>44</v>
@@ -3189,7 +3189,7 @@
         <v>319</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>44</v>
@@ -3239,7 +3239,7 @@
         <v>319</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>44</v>
@@ -3289,7 +3289,7 @@
         <v>319</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>44</v>
@@ -3339,7 +3339,7 @@
         <v>319</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>44</v>
@@ -3389,7 +3389,7 @@
         <v>319</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>44</v>
@@ -3439,7 +3439,7 @@
         <v>319</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>44</v>
@@ -3489,7 +3489,7 @@
         <v>319</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>44</v>
@@ -3539,7 +3539,7 @@
         <v>319</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>44</v>
@@ -3589,7 +3589,7 @@
         <v>319</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>44</v>
@@ -3634,7 +3634,7 @@
         <v>319</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>44</v>
@@ -3684,7 +3684,7 @@
         <v>319</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>44</v>
@@ -3734,7 +3734,7 @@
         <v>319</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>44</v>
@@ -3784,7 +3784,7 @@
         <v>319</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>44</v>
@@ -3834,7 +3834,7 @@
         <v>319</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>44</v>
@@ -3884,7 +3884,7 @@
         <v>319</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>44</v>
@@ -3929,7 +3929,7 @@
         <v>319</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>44</v>
@@ -3979,7 +3979,7 @@
         <v>319</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>44</v>
@@ -4029,7 +4029,7 @@
         <v>319</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>44</v>
@@ -4079,7 +4079,7 @@
         <v>319</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>44</v>
@@ -4129,7 +4129,7 @@
         <v>319</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>44</v>
@@ -4179,7 +4179,7 @@
         <v>319</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>44</v>
@@ -4229,7 +4229,7 @@
         <v>319</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>44</v>
@@ -4279,7 +4279,7 @@
         <v>319</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>44</v>
@@ -4329,7 +4329,7 @@
         <v>319</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>44</v>
@@ -4375,7 +4375,7 @@
         <v>319</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>44</v>
@@ -4421,7 +4421,7 @@
         <v>319</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>44</v>
@@ -4466,7 +4466,7 @@
         <v>319</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>44</v>
@@ -4516,7 +4516,7 @@
         <v>319</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>44</v>
@@ -4566,7 +4566,7 @@
         <v>319</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>44</v>
@@ -4617,7 +4617,7 @@
         <v>319</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>44</v>
@@ -4667,7 +4667,7 @@
         <v>319</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>44</v>
@@ -4717,7 +4717,7 @@
         <v>319</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>44</v>
@@ -4768,7 +4768,7 @@
         <v>319</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>44</v>
@@ -4818,7 +4818,7 @@
         <v>319</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>44</v>
@@ -4868,7 +4868,7 @@
         <v>319</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>44</v>
@@ -4918,7 +4918,7 @@
         <v>319</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>44</v>
@@ -4968,7 +4968,7 @@
         <v>319</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>44</v>
@@ -5018,7 +5018,7 @@
         <v>319</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>44</v>
@@ -5068,7 +5068,7 @@
         <v>319</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>44</v>
@@ -5118,7 +5118,7 @@
         <v>319</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>44</v>
@@ -5168,7 +5168,7 @@
         <v>319</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>44</v>
@@ -5213,7 +5213,7 @@
         <v>319</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>44</v>
@@ -5263,7 +5263,7 @@
         <v>319</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>44</v>
@@ -5313,7 +5313,7 @@
         <v>319</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>44</v>
@@ -5363,7 +5363,7 @@
         <v>319</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>44</v>
@@ -5413,7 +5413,7 @@
         <v>319</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>44</v>
@@ -5464,7 +5464,7 @@
         <v>319</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>44</v>
@@ -5514,7 +5514,7 @@
         <v>319</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D57" s="23" t="s">
         <v>44</v>
@@ -5564,7 +5564,7 @@
         <v>319</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D58" s="23" t="s">
         <v>44</v>
@@ -5614,7 +5614,7 @@
         <v>319</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>44</v>
@@ -5664,7 +5664,7 @@
         <v>319</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>44</v>
@@ -5714,7 +5714,7 @@
         <v>319</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>44</v>
@@ -5764,7 +5764,7 @@
         <v>319</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>44</v>
